--- a/T41_V012_Files/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_12-01-24.xlsx
+++ b/T41_V012_Files/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_12-01-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3AA9E0-CA4F-4985-A803-AE16539EBFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698802D3-3AE4-40B9-ADA0-8AB90F77524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="RX Gain Control" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="340">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -192,12 +192,6 @@
     <t>80-C1206C222K5RAC</t>
   </si>
   <si>
-    <t>C1206C222K5RAC</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 2200pF X7R 1206 10%</t>
-  </si>
-  <si>
     <t>0.2uF 50V SMD 1206 Capacitor</t>
   </si>
   <si>
@@ -922,9 +916,6 @@
   </si>
   <si>
     <t>U7, U9</t>
-  </si>
-  <si>
-    <t>C49</t>
   </si>
   <si>
     <t>L7</t>
@@ -1068,7 +1059,25 @@
     <t>490-10814-1-ND</t>
   </si>
   <si>
-    <t>C6, C7, C13, C16, C18, C20, C22, C23, C25, C26, C27, C29, C30, C31, C40, C43, C45, C47, C49, C52, C53, C55, C56, C58, C59, C61, C62, C63, C64, C65, C66, C68, C70, C72, C73, C80, C83, C84</t>
+    <t>20 pF 50V SMD 1206 Capacitor</t>
+  </si>
+  <si>
+    <t>C33, C37, C46, C54</t>
+  </si>
+  <si>
+    <t>0 Ohm 1206 Resistors</t>
+  </si>
+  <si>
+    <t>C32, C35, C36, C42, C48, C51</t>
+  </si>
+  <si>
+    <t>80-C1206C200J5GACLR</t>
+  </si>
+  <si>
+    <t>C6, C7, C13, C16, C18, C20, C22, C23, C25, C26, C27, C29, C30, C31, C40, C43, C45, C47, C49, C52, C53, C55, C56, C58, C59, C61, C62, C63, C64, C65, C66, C68, C70, C72, C73, C80, C83, C84, C85</t>
+  </si>
+  <si>
+    <t>C49, C85</t>
   </si>
 </sst>
 </file>
@@ -1157,12 +1166,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1198,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1247,6 +1262,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1584,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,11 +1661,11 @@
       </c>
       <c r="D6" s="4">
         <f>'TCXO Option'!A5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
         <f>'TCXO Option'!H5</f>
-        <v>10.049999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1703,11 +1719,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="6">
         <f>SUM(D5:D9)</f>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E10" s="7">
         <f>SUM(E5:E9)</f>
-        <v>82.188999999999993</v>
+        <v>82.239000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1715,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" s="4">
         <f>'Board As Second RX'!A37</f>
@@ -1737,10 +1753,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,7 +1829,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H33" si="0">G2*A2</f>
+        <f t="shared" ref="H2:H34" si="0">G2*A2</f>
         <v>2.3630000000000004</v>
       </c>
       <c r="I2" t="s">
@@ -1829,157 +1845,140 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="G3" s="11">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="11">
         <v>0.17</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2679999999999998</v>
-      </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1987,131 +1986,119 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="G8" s="11">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>1.52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>0.39</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G11" s="11">
-        <v>1.41</v>
+        <v>0.39</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>0.39</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2119,56 +2106,68 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G12" s="11">
-        <v>3.35</v>
+        <v>1.41</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>6.7</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
       <c r="G13" s="11">
-        <v>0.14000000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>6.7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2176,32 +2175,20 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="11">
-        <v>1.1200000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>86</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2209,41 +2196,53 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
       </c>
       <c r="G15" s="11">
-        <v>0.02</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
       </c>
       <c r="G16" s="11">
         <v>0.02</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2251,13 +2250,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="11">
         <v>0.02</v>
@@ -2269,566 +2268,554 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>1.2600000000000002</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" t="s">
-        <v>97</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G19" s="11">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.2600000000000002</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E20" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="G20" s="11">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>0.7</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>331</v>
+      </c>
+      <c r="E21" t="s">
+        <v>332</v>
       </c>
       <c r="G21" s="11">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>1.41</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G22" s="11">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>0.37</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G23" s="11">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
         <v>127</v>
       </c>
-      <c r="J24" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="K24" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="C26" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="G26" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
         <v>132</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.23800000000000002</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G27" s="11">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G28" s="11">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G29" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
       </c>
       <c r="G30" s="11">
-        <v>0.1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:H56" si="1">G34*A34</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2836,32 +2823,32 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H35:H57" si="1">G35*A35</f>
         <v>0.1</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J35" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2869,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
@@ -2885,16 +2872,16 @@
         <v>0.1</v>
       </c>
       <c r="I36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2902,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G37" s="11">
         <v>0.1</v>
@@ -2918,70 +2905,70 @@
         <v>0.1</v>
       </c>
       <c r="I37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
       </c>
       <c r="G38" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
       </c>
       <c r="G39" s="11">
-        <v>4.0199999999999996</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="I39" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39" t="s">
-        <v>201</v>
-      </c>
-      <c r="L39" t="s">
-        <v>202</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2989,125 +2976,122 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G40" s="11">
-        <v>5.17</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>5.17</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G41" s="11">
-        <v>0.85</v>
+        <v>5.17</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>5.17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" t="s">
+        <v>199</v>
+      </c>
+      <c r="L41" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
+        <v>207</v>
       </c>
       <c r="G42" s="11">
-        <v>3.6</v>
+        <v>0.85</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>212</v>
-      </c>
-      <c r="J42" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" t="s">
-        <v>201</v>
-      </c>
-      <c r="L42" t="s">
-        <v>213</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="G43" s="11">
-        <v>5.32</v>
+        <v>3.6</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>10.64</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J43" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K43" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3115,155 +3099,158 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G44" s="11">
-        <v>0.33</v>
+        <v>5.32</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>10.64</v>
       </c>
       <c r="I44" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J44" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" t="s">
-        <v>226</v>
+        <v>287</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
       </c>
       <c r="G45" s="11">
-        <v>0.84</v>
+        <v>0.33</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>3.36</v>
+        <v>0.66</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J45" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G46" s="11">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>3.36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" t="s">
+        <v>221</v>
+      </c>
+      <c r="L46" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G47" s="11">
-        <v>1.03</v>
+        <v>0.47</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>2.06</v>
-      </c>
-      <c r="I47" t="s">
-        <v>234</v>
-      </c>
-      <c r="J47" t="s">
-        <v>235</v>
-      </c>
-      <c r="K47" t="s">
-        <v>236</v>
-      </c>
-      <c r="L47" t="s">
-        <v>237</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G48" s="11">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="I48" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3271,32 +3258,32 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G49" s="11">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="I49" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J49" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3304,32 +3291,32 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G50" s="11">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J50" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3337,32 +3324,32 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G51" s="11">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="I51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J51" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3370,32 +3357,32 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G52" s="11">
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>0.46</v>
+        <v>1.69</v>
       </c>
       <c r="I52" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J52" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K52" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3403,32 +3390,32 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G53" s="11">
-        <v>1.42</v>
+        <v>0.46</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.42</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J53" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3436,95 +3423,128 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
-      </c>
-      <c r="E54" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="G54" s="11">
-        <v>9.86</v>
+        <v>1.42</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
+        <v>1.42</v>
+      </c>
+      <c r="I54" t="s">
+        <v>263</v>
+      </c>
+      <c r="J54" t="s">
+        <v>264</v>
+      </c>
+      <c r="K54" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="11">
         <v>9.86</v>
-      </c>
-      <c r="I54" t="s">
-        <v>272</v>
-      </c>
-      <c r="J54" t="s">
-        <v>273</v>
-      </c>
-      <c r="K54" t="s">
-        <v>274</v>
-      </c>
-      <c r="L54" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <v>1</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0.7</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
+        <v>9.86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>270</v>
+      </c>
+      <c r="J55" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
+      <c r="H56" s="11">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="14">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>0.02</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H57" s="15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
-        <f>SUM(A2:A56)</f>
-        <v>216</v>
-      </c>
-      <c r="D57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" s="16">
-        <f>SUM(H2:H56)</f>
-        <v>81.682999999999993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>322</v>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <f>SUM(A2:A57)</f>
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="16">
+        <f>SUM(H2:H57)</f>
+        <v>81.337000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B60" s="21" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3537,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3646,13 +3666,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" t="s">
-        <v>331</v>
       </c>
       <c r="G5" s="11">
         <v>0.17</v>
@@ -3667,13 +3687,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" t="s">
-        <v>330</v>
       </c>
       <c r="G6" s="11">
         <v>0.17</v>
@@ -3691,7 +3711,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -3730,13 +3750,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
       </c>
       <c r="G9" s="11">
         <v>0.38</v>
@@ -3751,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="11">
         <v>0.39</v>
@@ -3772,13 +3792,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="11">
         <v>1.41</v>
@@ -3793,13 +3813,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>3.35</v>
@@ -3814,13 +3834,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
       </c>
       <c r="G13" s="11">
         <v>0.14000000000000001</v>
@@ -3835,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
       </c>
       <c r="G14" s="11">
         <v>1.1200000000000001</v>
@@ -3856,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="11">
         <v>0.02</v>
@@ -3877,13 +3897,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
       </c>
       <c r="G16" s="11">
         <v>0.02</v>
@@ -3898,13 +3918,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="11">
         <v>0.02</v>
@@ -3919,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="11">
         <v>0.14000000000000001</v>
@@ -3940,13 +3960,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
       </c>
       <c r="G19" s="11">
         <v>0.35</v>
@@ -3961,16 +3981,16 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" t="s">
         <v>332</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E20" t="s">
-        <v>335</v>
       </c>
       <c r="G20" s="11">
         <v>0.47</v>
@@ -3985,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="11">
         <v>0.37</v>
@@ -4006,13 +4026,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="11">
         <v>0.59</v>
@@ -4027,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
         <v>119</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
       </c>
       <c r="G23" s="11">
         <v>0.1</v>
@@ -4048,13 +4068,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
@@ -4069,13 +4089,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
         <v>130</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
       </c>
       <c r="G25" s="11">
         <v>1.7000000000000001E-2</v>
@@ -4090,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
       </c>
       <c r="G26" s="11">
         <v>0.1</v>
@@ -4111,13 +4131,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
         <v>141</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" t="s">
-        <v>143</v>
       </c>
       <c r="G27" s="11">
         <v>0.1</v>
@@ -4132,13 +4152,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
       </c>
       <c r="G28" s="11">
         <v>0.1</v>
@@ -4153,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" t="s">
-        <v>153</v>
       </c>
       <c r="G29" s="11">
         <v>3.5999999999999997E-2</v>
@@ -4174,13 +4194,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="G30" s="11">
         <v>0.1</v>
@@ -4195,13 +4215,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" t="s">
-        <v>163</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
@@ -4216,13 +4236,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" t="s">
         <v>166</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
@@ -4237,13 +4257,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
@@ -4258,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" t="s">
         <v>175</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
@@ -4279,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
@@ -4300,13 +4320,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
         <v>185</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" t="s">
-        <v>187</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
@@ -4321,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" t="s">
-        <v>192</v>
       </c>
       <c r="G37" s="11">
         <v>0.1</v>
@@ -4342,13 +4362,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
         <v>195</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" t="s">
-        <v>197</v>
       </c>
       <c r="G38" s="11">
         <v>2.8000000000000001E-2</v>
@@ -4363,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
         <v>198</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
       </c>
       <c r="G39" s="11">
         <v>4.0199999999999996</v>
@@ -4384,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
         <v>203</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>205</v>
       </c>
       <c r="G40" s="11">
         <v>5.17</v>
@@ -4405,16 +4425,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="E41" t="s">
         <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" t="s">
-        <v>209</v>
       </c>
       <c r="G41" s="11">
         <v>0.85</v>
@@ -4429,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
         <v>210</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" t="s">
-        <v>212</v>
       </c>
       <c r="G42" s="11">
         <v>3.6</v>
@@ -4450,16 +4470,16 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G43" s="11">
         <v>0.33</v>
@@ -4474,13 +4494,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G44" s="11">
         <v>0.84</v>
@@ -4495,13 +4515,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
         <v>230</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" t="s">
-        <v>232</v>
       </c>
       <c r="G45" s="11">
         <v>0.47</v>
@@ -4516,13 +4536,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G46" s="11">
         <v>1.03</v>
@@ -4537,13 +4557,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" t="s">
         <v>238</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" t="s">
-        <v>240</v>
       </c>
       <c r="G47" s="11">
         <v>2.14</v>
@@ -4558,13 +4578,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" t="s">
         <v>244</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" t="s">
-        <v>246</v>
       </c>
       <c r="G48" s="11">
         <v>1.87</v>
@@ -4579,13 +4599,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" t="s">
         <v>248</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D49" t="s">
-        <v>250</v>
       </c>
       <c r="G49" s="11">
         <v>2.46</v>
@@ -4600,13 +4620,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" t="s">
         <v>252</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" t="s">
-        <v>254</v>
       </c>
       <c r="G50" s="11">
         <v>1.69</v>
@@ -4621,13 +4641,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" t="s">
         <v>257</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" t="s">
-        <v>259</v>
       </c>
       <c r="G51" s="11">
         <v>0.46</v>
@@ -4642,16 +4662,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="E52" t="s">
         <v>277</v>
-      </c>
-      <c r="D52" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" t="s">
-        <v>279</v>
       </c>
       <c r="G52" s="11">
         <v>0.45</v>
@@ -4666,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G53" s="11">
         <v>0.7</v>
@@ -4687,13 +4707,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" t="s">
         <v>280</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" t="s">
-        <v>282</v>
       </c>
       <c r="G54" s="11">
         <v>0.02</v>
@@ -4716,7 +4736,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4733,8 +4753,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4782,7 +4802,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -4824,7 +4844,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -4842,13 +4862,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" t="s">
-        <v>331</v>
       </c>
       <c r="G5" s="11">
         <v>0.17</v>
@@ -4863,13 +4883,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" t="s">
-        <v>330</v>
       </c>
       <c r="G6" s="11">
         <v>0.17</v>
@@ -4887,7 +4907,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -4905,13 +4925,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="11">
         <v>0.39</v>
@@ -4926,13 +4946,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="11">
         <v>1.41</v>
@@ -4947,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="11">
         <v>3.35</v>
@@ -4968,13 +4988,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="11">
         <v>0.14000000000000001</v>
@@ -4989,13 +5009,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
       </c>
       <c r="G12" s="11">
         <v>1.1200000000000001</v>
@@ -5010,13 +5030,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
       </c>
       <c r="G13" s="11">
         <v>0.02</v>
@@ -5031,13 +5051,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="11">
         <v>0.02</v>
@@ -5052,13 +5072,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="11">
         <v>0.14000000000000001</v>
@@ -5073,13 +5093,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
       </c>
       <c r="G16" s="11">
         <v>0.35</v>
@@ -5094,13 +5114,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G17" s="11">
         <v>0.47</v>
@@ -5115,13 +5135,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="11">
         <v>0.59</v>
@@ -5136,13 +5156,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
       </c>
       <c r="G19" s="11">
         <v>0.1</v>
@@ -5157,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
       </c>
       <c r="G20" s="11">
         <v>0.1</v>
@@ -5178,13 +5198,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" t="s">
         <v>130</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
       </c>
       <c r="G21" s="11">
         <v>1.7000000000000001E-2</v>
@@ -5199,13 +5219,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" t="s">
-        <v>137</v>
       </c>
       <c r="G22" s="11">
         <v>0.1</v>
@@ -5220,13 +5240,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
         <v>141</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
       </c>
       <c r="G23" s="11">
         <v>0.1</v>
@@ -5241,13 +5261,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
         <v>166</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
@@ -5262,13 +5282,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
         <v>195</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F25" t="s">
-        <v>197</v>
       </c>
       <c r="G25" s="11">
         <v>2.8000000000000001E-2</v>
@@ -5283,13 +5303,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
         <v>198</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
       </c>
       <c r="G26" s="11">
         <v>4.0199999999999996</v>
@@ -5304,16 +5324,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" t="s">
-        <v>208</v>
-      </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G27" s="11">
         <v>0.85</v>
@@ -5328,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
         <v>210</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" t="s">
-        <v>212</v>
       </c>
       <c r="G28" s="11">
         <v>3.6</v>
@@ -5349,16 +5369,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G29" s="11">
         <v>5.32</v>
@@ -5368,19 +5388,19 @@
         <v>5.32</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -5388,16 +5408,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G30" s="11">
         <v>0.33</v>
@@ -5412,13 +5432,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G31" s="11">
         <v>0.84</v>
@@ -5433,13 +5453,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" t="s">
         <v>238</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
       </c>
       <c r="G32" s="11">
         <v>2.14</v>
@@ -5454,13 +5474,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" t="s">
         <v>248</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" t="s">
-        <v>250</v>
       </c>
       <c r="G33" s="11">
         <v>2.46</v>
@@ -5475,13 +5495,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
         <v>252</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" t="s">
-        <v>254</v>
       </c>
       <c r="G34" s="11">
         <v>1.69</v>
@@ -5496,16 +5516,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="E35" t="s">
         <v>277</v>
-      </c>
-      <c r="D35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" t="s">
-        <v>279</v>
       </c>
       <c r="G35" s="11">
         <v>0.45</v>
@@ -5520,13 +5540,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" t="s">
         <v>280</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" t="s">
-        <v>282</v>
       </c>
       <c r="G36" s="11">
         <v>0.02</v>
@@ -5558,7 +5578,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5601,13 +5621,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -5619,7 +5639,7 @@
       </c>
       <c r="H2" s="5">
         <f>G2*A2</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -5627,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="9"/>
@@ -5650,16 +5670,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" t="s">
-        <v>271</v>
-      </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G4" s="5">
         <v>9.86</v>
@@ -5672,14 +5692,14 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f>SUM(A2:A4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="18">
         <f>SUM(H2:H4)</f>
-        <v>10.049999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -5760,13 +5780,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" t="s">
-        <v>153</v>
       </c>
       <c r="G3" s="5">
         <v>0.1</v>
@@ -5781,13 +5801,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
         <v>263</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" t="s">
-        <v>265</v>
       </c>
       <c r="G4" s="5">
         <v>1.42</v>
@@ -5866,7 +5886,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -5884,13 +5904,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="5">
         <v>0.02</v>
@@ -5905,16 +5925,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>5.32</v>
@@ -5994,7 +6014,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -6012,13 +6032,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="5">
         <v>0.02</v>
@@ -6033,16 +6053,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>5.32</v>
